--- a/biology/Mycologie/Hyaloscyphaceae/Hyaloscyphaceae.xlsx
+++ b/biology/Mycologie/Hyaloscyphaceae/Hyaloscyphaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Hyaloscyphaceae est une famille de champignons de l’ordre des Helotiales.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (10 février 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (10 février 2019) :
 genre Acleistia Bayl. Ell.
 genre Aeruginoscyphus Dougoud
 genre Albotricha Raitv.
@@ -601,7 +615,7 @@
 genre Urceolella Boud.
 genre Velutaria Fuckel
 genre Venturiocistella Raitv.
-Selon Catalogue of Life                                   (10 février 2019)[3] :
+Selon Catalogue of Life                                   (10 février 2019) :
 genre Acleistia
 genre Aeruginoscyphus
 genre Albotricha
@@ -693,9 +707,9 @@
 genre Urceolella
 genre Velutaria
 genre Venturiocistella
-Selon ITIS      (10 février 2019)[4] :
+Selon ITIS      (10 février 2019) :
 genre Lacnellula P. A. Karsten
-Selon NCBI  (10 février 2019)[5] :
+Selon NCBI  (10 février 2019) :
 genre Albotricha
 genre Amicodisca
 genre Arachnopeziza
